--- a/products/冲调饮品/饮料/朗格勒高原优质樱桃汁.xlsx
+++ b/products/冲调饮品/饮料/朗格勒高原优质樱桃汁.xlsx
@@ -232,7 +232,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -244,6 +244,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -548,8 +551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:XFD36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -569,7 +572,7 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="4">
         <v>41755008323</v>
       </c>
     </row>
